--- a/xlsx/阿魯巴_intext.xlsx
+++ b/xlsx/阿魯巴_intext.xlsx
@@ -29,7 +29,7 @@
     <t>地理坐标</t>
   </si>
   <si>
-    <t>政策_政策_美國_阿魯巴</t>
+    <t>体育运动_体育运动_南非_阿魯巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%8B%92%E6%AF%94%E6%B5%B7</t>
